--- a/results/2025-26/schCNPFF2-v1/fullCalendarCNPFF2.xlsx
+++ b/results/2025-26/schCNPFF2-v1/fullCalendarCNPFF2.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Calendar" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$G$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$G$165</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="141">
   <si>
     <t>Competition</t>
   </si>
@@ -191,6 +191,21 @@
     <t>FIFA</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>20/10/2025</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
     <t>Thu</t>
   </si>
   <si>
@@ -209,15 +224,9 @@
     <t>26/10/2025</t>
   </si>
   <si>
-    <t>Mon</t>
-  </si>
-  <si>
     <t>27/10/2025</t>
   </si>
   <si>
-    <t>Tue</t>
-  </si>
-  <si>
     <t>28/10/2025</t>
   </si>
   <si>
@@ -233,9 +242,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>05/11/2025</t>
-  </si>
-  <si>
     <t>08/11/2025</t>
   </si>
   <si>
@@ -245,9 +251,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>12/11/2025</t>
-  </si>
-  <si>
     <t>15/11/2025</t>
   </si>
   <si>
@@ -257,9 +260,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>19/11/2025</t>
-  </si>
-  <si>
     <t>22/11/2025</t>
   </si>
   <si>
@@ -302,6 +302,24 @@
     <t>07/12/2025</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13/12/2025</t>
+  </si>
+  <si>
+    <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>20/12/2025</t>
+  </si>
+  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -390,48 +408,6 @@
   </si>
   <si>
     <t>18/01/2026</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>24/01/2026</t>
-  </si>
-  <si>
-    <t>25/01/2026</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>31/01/2026</t>
-  </si>
-  <si>
-    <t>01/02/2026</t>
-  </si>
-  <si>
-    <t>04/02/2026</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>07/02/2026</t>
-  </si>
-  <si>
-    <t>08/02/2026</t>
-  </si>
-  <si>
-    <t>11/02/2026</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14/02/2026</t>
-  </si>
-  <si>
-    <t>15/02/2026</t>
   </si>
   <si>
     <t>24/02/2026</t>
@@ -518,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1373">
+  <cellXfs count="953">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -891,937 +867,517 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -1898,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2772,10 +2328,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="s" s="258">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s" s="259">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -2795,10 +2351,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="s" s="265">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s" s="266">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2818,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="s" s="272">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s" s="273">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -2910,10 +2466,10 @@
         <v>11</v>
       </c>
       <c r="F44" t="s" s="300">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s" s="301">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2933,10 +2489,10 @@
         <v>11</v>
       </c>
       <c r="F45" t="s" s="307">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s" s="308">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -2956,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="F46" t="s" s="314">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s" s="315">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -3117,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="F53" t="s" s="363">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s" s="364">
         <v>19</v>
@@ -3140,7 +2696,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s" s="370">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s" s="371">
         <v>19</v>
@@ -3148,25 +2704,25 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="372">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s" s="373">
         <v>51</v>
       </c>
       <c r="C55" t="s" s="374">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s" s="375">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s" s="376">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s" s="377">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="378">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -3186,10 +2742,10 @@
         <v>11</v>
       </c>
       <c r="F56" t="s" s="384">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s" s="385">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -3209,15 +2765,15 @@
         <v>11</v>
       </c>
       <c r="F57" t="s" s="391">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s" s="392">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="393">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s" s="394">
         <v>51</v>
@@ -3229,13 +2785,13 @@
         <v>53</v>
       </c>
       <c r="E58" t="s" s="397">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s" s="398">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s" s="399">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -3255,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="F59" t="s" s="405">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s" s="406">
         <v>19</v>
@@ -3278,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="F60" t="s" s="412">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s" s="413">
         <v>19</v>
@@ -3286,25 +2842,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="414">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s" s="415">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s" s="416">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s" s="417">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s" s="418">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s" s="419">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s" s="420">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3324,10 +2880,10 @@
         <v>11</v>
       </c>
       <c r="F62" t="s" s="426">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s" s="427">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -3347,15 +2903,15 @@
         <v>11</v>
       </c>
       <c r="F63" t="s" s="433">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s" s="434">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="435">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s" s="436">
         <v>54</v>
@@ -3367,59 +2923,59 @@
         <v>55</v>
       </c>
       <c r="E64" t="s" s="439">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s" s="440">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s" s="441">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="442">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s" s="443">
         <v>54</v>
       </c>
       <c r="C65" t="s" s="444">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s" s="445">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s" s="446">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s" s="447">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s" s="448">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="449">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s" s="450">
         <v>54</v>
       </c>
       <c r="C66" t="s" s="451">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s" s="452">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s" s="453">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s" s="454">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s" s="455">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3439,76 +2995,76 @@
         <v>11</v>
       </c>
       <c r="F67" t="s" s="461">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s" s="462">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="463">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s" s="464">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s" s="465">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s" s="466">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s" s="467">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s" s="468">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s" s="469">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="470">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s" s="471">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s" s="472">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D69" t="s" s="473">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s" s="474">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s" s="475">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s" s="476">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="477">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s" s="478">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s" s="479">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s" s="480">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s" s="481">
         <v>19</v>
       </c>
       <c r="F70" t="s" s="482">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s" s="483">
         <v>19</v>
@@ -3516,22 +3072,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="484">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s" s="485">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s" s="486">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s" s="487">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s" s="488">
         <v>19</v>
       </c>
       <c r="F71" t="s" s="489">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s" s="490">
         <v>19</v>
@@ -3539,22 +3095,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="491">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s" s="492">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s" s="493">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s" s="494">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s" s="495">
         <v>19</v>
       </c>
       <c r="F72" t="s" s="496">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s" s="497">
         <v>19</v>
@@ -3568,10 +3124,10 @@
         <v>19</v>
       </c>
       <c r="C73" t="s" s="500">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s" s="501">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s" s="502">
         <v>19</v>
@@ -3591,10 +3147,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s" s="507">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s" s="508">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s" s="509">
         <v>19</v>
@@ -3614,10 +3170,10 @@
         <v>19</v>
       </c>
       <c r="C75" t="s" s="514">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s" s="515">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s" s="516">
         <v>19</v>
@@ -3637,10 +3193,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s" s="521">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s" s="522">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s" s="523">
         <v>19</v>
@@ -3654,393 +3210,393 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="526">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s" s="527">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s" s="528">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s" s="529">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E77" t="s" s="530">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s" s="531">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s" s="532">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="533">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s" s="534">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s" s="535">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s" s="536">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s" s="537">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s" s="538">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s" s="539">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="540">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s" s="541">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s" s="542">
         <v>9</v>
       </c>
       <c r="D79" t="s" s="543">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s" s="544">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s" s="545">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s" s="546">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="547">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s" s="548">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s" s="549">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s" s="550">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s" s="551">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s" s="552">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s" s="553">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="554">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s" s="555">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s" s="556">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s" s="557">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s" s="558">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s" s="559">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s" s="560">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="561">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s" s="562">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s" s="563">
         <v>22</v>
       </c>
       <c r="D82" t="s" s="564">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s" s="565">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s" s="566">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s" s="567">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="568">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s" s="569">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s" s="570">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s" s="571">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s" s="572">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s" s="573">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G83" t="s" s="574">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="575">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s" s="576">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s" s="577">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s" s="578">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s" s="579">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s" s="580">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s" s="581">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="582">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s" s="583">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s" s="584">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s" s="585">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s" s="586">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s" s="587">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G85" t="s" s="588">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="589">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s" s="590">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s" s="591">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s" s="592">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s" s="593">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s" s="594">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s" s="595">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="596">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s" s="597">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s" s="598">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s" s="599">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s" s="600">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s" s="601">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s" s="602">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="603">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s" s="604">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s" s="605">
         <v>22</v>
       </c>
       <c r="D88" t="s" s="606">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E88" t="s" s="607">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s" s="608">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s" s="609">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="610">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s" s="611">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s" s="612">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s" s="613">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E89" t="s" s="614">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s" s="615">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s" s="616">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="617">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s" s="618">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s" s="619">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s" s="620">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E90" t="s" s="621">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s" s="622">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s" s="623">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="624">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s" s="625">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s" s="626">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s" s="627">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s" s="628">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s" s="629">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s" s="630">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="631">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s" s="632">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s" s="633">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s" s="634">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s" s="635">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s" s="636">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s" s="637">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="638">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s" s="639">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s" s="640">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s" s="641">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E93" t="s" s="642">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s" s="643">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s" s="644">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -4048,22 +3604,22 @@
         <v>7</v>
       </c>
       <c r="B94" t="s" s="646">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s" s="647">
         <v>22</v>
       </c>
       <c r="D94" t="s" s="648">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s" s="649">
         <v>11</v>
       </c>
       <c r="F94" t="s" s="650">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s" s="651">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -4071,22 +3627,22 @@
         <v>7</v>
       </c>
       <c r="B95" t="s" s="653">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s" s="654">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s" s="655">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s" s="656">
         <v>11</v>
       </c>
       <c r="F95" t="s" s="657">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G95" t="s" s="658">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4094,203 +3650,203 @@
         <v>7</v>
       </c>
       <c r="B96" t="s" s="660">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s" s="661">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s" s="662">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s" s="663">
         <v>11</v>
       </c>
       <c r="F96" t="s" s="664">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s" s="665">
         <v>15</v>
-      </c>
-      <c r="G96" t="s" s="665">
-        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="666">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s" s="667">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s" s="668">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s" s="669">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s" s="670">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s" s="671">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s" s="672">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="673">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s" s="674">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s" s="675">
         <v>22</v>
       </c>
       <c r="D98" t="s" s="676">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E98" t="s" s="677">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s" s="678">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s" s="679">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="680">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s" s="681">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s" s="682">
         <v>22</v>
       </c>
       <c r="D99" t="s" s="683">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E99" t="s" s="684">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s" s="685">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s" s="686">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="687">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s" s="688">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s" s="689">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s" s="690">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E100" t="s" s="691">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s" s="692">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s" s="693">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="694">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s" s="695">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s" s="696">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s" s="697">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s" s="698">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s" s="699">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s" s="700">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="701">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s" s="702">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s" s="703">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D102" t="s" s="704">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s" s="705">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s" s="706">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s" s="707">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="708">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s" s="709">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s" s="710">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s" s="711">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E103" t="s" s="712">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s" s="713">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s" s="714">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="715">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s" s="716">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s" s="717">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D104" t="s" s="718">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E104" t="s" s="719">
         <v>19</v>
       </c>
       <c r="F104" t="s" s="720">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s" s="721">
         <v>19</v>
@@ -4298,22 +3854,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="722">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="723">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s" s="724">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s" s="725">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E105" t="s" s="726">
         <v>19</v>
       </c>
       <c r="F105" t="s" s="727">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s" s="728">
         <v>19</v>
@@ -4321,22 +3877,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="729">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="730">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s" s="731">
         <v>9</v>
       </c>
       <c r="D106" t="s" s="732">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s" s="733">
         <v>19</v>
       </c>
       <c r="F106" t="s" s="734">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s" s="735">
         <v>19</v>
@@ -4344,775 +3900,775 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="736">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="737">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s" s="738">
         <v>22</v>
       </c>
       <c r="D107" t="s" s="739">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E107" t="s" s="740">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F107" t="s" s="741">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s" s="742">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="743">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="744">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s" s="745">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s" s="746">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s" s="747">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s" s="748">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G108" t="s" s="749">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="750">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="751">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s" s="752">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s" s="753">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s" s="754">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s" s="755">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s" s="756">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="757">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s" s="758">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s" s="759">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s" s="760">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s" s="761">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s" s="762">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G110" t="s" s="763">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="764">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s" s="765">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s" s="766">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s" s="767">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E111" t="s" s="768">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s" s="769">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s" s="770">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="771">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s" s="772">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C112" t="s" s="773">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s" s="774">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E112" t="s" s="775">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s" s="776">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s" s="777">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="778">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s" s="779">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s" s="780">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s" s="781">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s" s="782">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s" s="783">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s" s="784">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="785">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s" s="786">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C114" t="s" s="787">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D114" t="s" s="788">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E114" t="s" s="789">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s" s="790">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s" s="791">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="792">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s" s="793">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s" s="794">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s" s="795">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E115" t="s" s="796">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s" s="797">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s" s="798">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="799">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s" s="800">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s" s="801">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s" s="802">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E116" t="s" s="803">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s" s="804">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G116" t="s" s="805">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="806">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s" s="807">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s" s="808">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s" s="809">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E117" t="s" s="810">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s" s="811">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G117" t="s" s="812">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="813">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s" s="814">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s" s="815">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s" s="816">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E118" t="s" s="817">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s" s="818">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s" s="819">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="820">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s" s="821">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s" s="822">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s" s="823">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E119" t="s" s="824">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s" s="825">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s" s="826">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="827">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s" s="828">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s" s="829">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s" s="830">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E120" t="s" s="831">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s" s="832">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s" s="833">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="834">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s" s="835">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C121" t="s" s="836">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s" s="837">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E121" t="s" s="838">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s" s="839">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s" s="840">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="841">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s" s="842">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s" s="843">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s" s="844">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E122" t="s" s="845">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s" s="846">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G122" t="s" s="847">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="848">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s" s="849">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C123" t="s" s="850">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s" s="851">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E123" t="s" s="852">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s" s="853">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s" s="854">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="855">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s" s="856">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s" s="857">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D124" t="s" s="858">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E124" t="s" s="859">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s" s="860">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s" s="861">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="862">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s" s="863">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C125" t="s" s="864">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s" s="865">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E125" t="s" s="866">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s" s="867">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G125" t="s" s="868">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="869">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s" s="870">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C126" t="s" s="871">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s" s="872">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E126" t="s" s="873">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s" s="874">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s" s="875">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="876">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s" s="877">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C127" t="s" s="878">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s" s="879">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E127" t="s" s="880">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s" s="881">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s" s="882">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="883">
-        <v>7</v>
-      </c>
-      <c r="B128" t="s" s="884">
-        <v>92</v>
-      </c>
-      <c r="C128" t="s" s="885">
-        <v>9</v>
-      </c>
-      <c r="D128" t="s" s="886">
-        <v>93</v>
-      </c>
-      <c r="E128" t="s" s="887">
-        <v>11</v>
-      </c>
-      <c r="F128" t="s" s="888">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s" s="889">
-        <v>12</v>
+      <c r="A128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="890">
-        <v>7</v>
-      </c>
-      <c r="B129" t="s" s="891">
-        <v>92</v>
-      </c>
-      <c r="C129" t="s" s="892">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s" s="893">
-        <v>93</v>
-      </c>
-      <c r="E129" t="s" s="894">
-        <v>11</v>
-      </c>
-      <c r="F129" t="s" s="895">
-        <v>25</v>
-      </c>
-      <c r="G129" t="s" s="896">
-        <v>28</v>
+      <c r="A129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="897">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s" s="898">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s" s="899">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s" s="900">
-        <v>93</v>
-      </c>
-      <c r="E130" t="s" s="901">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s" s="902">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s" s="903">
-        <v>26</v>
+      <c r="A130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="904">
-        <v>18</v>
-      </c>
-      <c r="B131" t="s" s="905">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s" s="906">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s" s="907">
-        <v>93</v>
-      </c>
-      <c r="E131" t="s" s="908">
-        <v>19</v>
-      </c>
-      <c r="F131" t="s" s="909">
-        <v>30</v>
-      </c>
-      <c r="G131" t="s" s="910">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="911">
-        <v>18</v>
-      </c>
-      <c r="B132" t="s" s="912">
-        <v>92</v>
-      </c>
-      <c r="C132" t="s" s="913">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s" s="914">
-        <v>93</v>
-      </c>
-      <c r="E132" t="s" s="915">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s" s="916">
-        <v>47</v>
-      </c>
-      <c r="G132" t="s" s="917">
+      <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="918">
-        <v>18</v>
-      </c>
-      <c r="B133" t="s" s="919">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s" s="920">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s" s="921">
-        <v>93</v>
-      </c>
-      <c r="E133" t="s" s="922">
-        <v>19</v>
-      </c>
-      <c r="F133" t="s" s="923">
-        <v>39</v>
-      </c>
-      <c r="G133" t="s" s="924">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="925">
-        <v>7</v>
-      </c>
-      <c r="B134" t="s" s="926">
-        <v>92</v>
-      </c>
-      <c r="C134" t="s" s="927">
-        <v>22</v>
-      </c>
-      <c r="D134" t="s" s="928">
-        <v>94</v>
-      </c>
-      <c r="E134" t="s" s="929">
-        <v>11</v>
-      </c>
-      <c r="F134" t="s" s="930">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s" s="931">
-        <v>14</v>
+      <c r="A134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="932">
-        <v>7</v>
-      </c>
-      <c r="B135" t="s" s="933">
-        <v>92</v>
-      </c>
-      <c r="C135" t="s" s="934">
-        <v>22</v>
-      </c>
-      <c r="D135" t="s" s="935">
-        <v>94</v>
-      </c>
-      <c r="E135" t="s" s="936">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s" s="937">
-        <v>29</v>
-      </c>
-      <c r="G135" t="s" s="938">
-        <v>16</v>
+      <c r="A135" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="939">
-        <v>7</v>
-      </c>
-      <c r="B136" t="s" s="940">
-        <v>92</v>
-      </c>
-      <c r="C136" t="s" s="941">
-        <v>22</v>
-      </c>
-      <c r="D136" t="s" s="942">
-        <v>94</v>
-      </c>
-      <c r="E136" t="s" s="943">
-        <v>11</v>
-      </c>
-      <c r="F136" t="s" s="944">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s" s="945">
-        <v>27</v>
+      <c r="A136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" t="s">
+        <v>110</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="946">
-        <v>18</v>
-      </c>
-      <c r="B137" t="s" s="947">
-        <v>92</v>
-      </c>
-      <c r="C137" t="s" s="948">
-        <v>22</v>
-      </c>
-      <c r="D137" t="s" s="949">
-        <v>94</v>
-      </c>
-      <c r="E137" t="s" s="950">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s" s="951">
-        <v>43</v>
-      </c>
-      <c r="G137" t="s" s="952">
+      <c r="A137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="953">
-        <v>18</v>
-      </c>
-      <c r="B138" t="s" s="954">
-        <v>92</v>
-      </c>
-      <c r="C138" t="s" s="955">
-        <v>22</v>
-      </c>
-      <c r="D138" t="s" s="956">
-        <v>94</v>
-      </c>
-      <c r="E138" t="s" s="957">
-        <v>19</v>
-      </c>
-      <c r="F138" t="s" s="958">
-        <v>38</v>
-      </c>
-      <c r="G138" t="s" s="959">
+      <c r="A138" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="960">
-        <v>18</v>
-      </c>
-      <c r="B139" t="s" s="961">
-        <v>92</v>
-      </c>
-      <c r="C139" t="s" s="962">
-        <v>22</v>
-      </c>
-      <c r="D139" t="s" s="963">
-        <v>94</v>
-      </c>
-      <c r="E139" t="s" s="964">
-        <v>19</v>
-      </c>
-      <c r="F139" t="s" s="965">
-        <v>40</v>
-      </c>
-      <c r="G139" t="s" s="966">
+      <c r="A139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D140" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -5126,16 +4682,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -5149,16 +4705,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -5172,16 +4728,16 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -5195,16 +4751,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
@@ -5218,16 +4774,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B145" t="s">
         <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E145" t="s">
         <v>19</v>
@@ -5241,16 +4797,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -5264,16 +4820,16 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E147" t="s">
         <v>19</v>
@@ -5287,16 +4843,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E148" t="s">
         <v>19</v>
@@ -5310,16 +4866,16 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -5333,16 +4889,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D150" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -5356,16 +4912,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
@@ -5379,16 +4935,16 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -5402,16 +4958,16 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D153" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -5425,16 +4981,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D154" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -5448,16 +5004,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -5471,16 +5027,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -5493,1617 +5049,237 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="A157" t="s" s="883">
+        <v>57</v>
+      </c>
+      <c r="B157" t="s" s="884">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s" s="885">
+        <v>60</v>
+      </c>
+      <c r="D157" t="s" s="886">
+        <v>131</v>
+      </c>
+      <c r="E157" t="s" s="887">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s" s="888">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s" s="889">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="890">
+        <v>57</v>
+      </c>
+      <c r="B158" t="s" s="891">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s" s="892">
         <v>33</v>
       </c>
-      <c r="D157" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>95</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s" s="893">
+        <v>132</v>
+      </c>
+      <c r="E158" t="s" s="894">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s" s="895">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s" s="896">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="897">
+        <v>57</v>
+      </c>
+      <c r="B159" t="s" s="898">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s" s="899">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s" s="900">
+        <v>133</v>
+      </c>
+      <c r="E159" t="s" s="901">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s" s="902">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s" s="903">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="904">
+        <v>57</v>
+      </c>
+      <c r="B160" t="s" s="905">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s" s="906">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s" s="907">
+        <v>134</v>
+      </c>
+      <c r="E160" t="s" s="908">
+        <v>19</v>
+      </c>
+      <c r="F160" t="s" s="909">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s" s="910">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="911">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s" s="912">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s" s="913">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s" s="914">
+        <v>135</v>
+      </c>
+      <c r="E161" t="s" s="915">
+        <v>19</v>
+      </c>
+      <c r="F161" t="s" s="916">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s" s="917">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="918">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s" s="919">
+        <v>19</v>
+      </c>
+      <c r="C162" t="s" s="920">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s" s="921">
+        <v>136</v>
+      </c>
+      <c r="E162" t="s" s="922">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s" s="923">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s" s="924">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="925">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s" s="926">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s" s="927">
         <v>58</v>
       </c>
-      <c r="D158" t="s">
-        <v>114</v>
-      </c>
-      <c r="E158" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>95</v>
-      </c>
-      <c r="B159" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D163" t="s" s="928">
+        <v>137</v>
+      </c>
+      <c r="E163" t="s" s="929">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s" s="930">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s" s="931">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="932">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s" s="933">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s" s="934">
         <v>60</v>
       </c>
-      <c r="D159" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>95</v>
-      </c>
-      <c r="B160" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" t="s">
-        <v>116</v>
-      </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>95</v>
-      </c>
-      <c r="B161" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s">
-        <v>117</v>
-      </c>
-      <c r="E161" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>95</v>
-      </c>
-      <c r="B162" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" t="s">
-        <v>64</v>
-      </c>
-      <c r="D162" t="s">
-        <v>118</v>
-      </c>
-      <c r="E162" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>95</v>
-      </c>
-      <c r="B163" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" t="s">
-        <v>66</v>
-      </c>
-      <c r="D163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E163" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>95</v>
-      </c>
-      <c r="B164" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s" s="935">
+        <v>138</v>
+      </c>
+      <c r="E164" t="s" s="936">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s" s="937">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s" s="938">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="939">
+        <v>57</v>
+      </c>
+      <c r="B165" t="s" s="940">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s" s="941">
         <v>33</v>
       </c>
-      <c r="D164" t="s">
-        <v>120</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>95</v>
-      </c>
-      <c r="B165" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" t="s">
-        <v>58</v>
-      </c>
-      <c r="D165" t="s">
-        <v>121</v>
-      </c>
-      <c r="E165" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="D165" t="s" s="942">
+        <v>139</v>
+      </c>
+      <c r="E165" t="s" s="943">
+        <v>19</v>
+      </c>
+      <c r="F165" t="s" s="944">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s" s="945">
         <v>19</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s">
-        <v>95</v>
-      </c>
-      <c r="B166" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" t="s">
-        <v>60</v>
-      </c>
-      <c r="D166" t="s">
-        <v>122</v>
-      </c>
-      <c r="E166" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>95</v>
-      </c>
-      <c r="B167" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>123</v>
-      </c>
-      <c r="E167" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>95</v>
-      </c>
-      <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" t="s">
-        <v>22</v>
-      </c>
-      <c r="D168" t="s">
-        <v>124</v>
-      </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="967">
-        <v>7</v>
-      </c>
-      <c r="B169" t="s" s="968">
-        <v>125</v>
-      </c>
-      <c r="C169" t="s" s="969">
-        <v>9</v>
-      </c>
-      <c r="D169" t="s" s="970">
-        <v>126</v>
-      </c>
-      <c r="E169" t="s" s="971">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s" s="972">
-        <v>13</v>
-      </c>
-      <c r="G169" t="s" s="973">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="974">
-        <v>7</v>
-      </c>
-      <c r="B170" t="s" s="975">
-        <v>125</v>
-      </c>
-      <c r="C170" t="s" s="976">
-        <v>9</v>
-      </c>
-      <c r="D170" t="s" s="977">
-        <v>126</v>
-      </c>
-      <c r="E170" t="s" s="978">
-        <v>11</v>
-      </c>
-      <c r="F170" t="s" s="979">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s" s="980">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="981">
-        <v>7</v>
-      </c>
-      <c r="B171" t="s" s="982">
-        <v>125</v>
-      </c>
-      <c r="C171" t="s" s="983">
-        <v>9</v>
-      </c>
-      <c r="D171" t="s" s="984">
-        <v>126</v>
-      </c>
-      <c r="E171" t="s" s="985">
-        <v>11</v>
-      </c>
-      <c r="F171" t="s" s="986">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s" s="987">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="988">
-        <v>18</v>
-      </c>
-      <c r="B172" t="s" s="989">
-        <v>125</v>
-      </c>
-      <c r="C172" t="s" s="990">
-        <v>9</v>
-      </c>
-      <c r="D172" t="s" s="991">
-        <v>126</v>
-      </c>
-      <c r="E172" t="s" s="992">
-        <v>19</v>
-      </c>
-      <c r="F172" t="s" s="993">
-        <v>47</v>
-      </c>
-      <c r="G172" t="s" s="994">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="995">
-        <v>18</v>
-      </c>
-      <c r="B173" t="s" s="996">
-        <v>125</v>
-      </c>
-      <c r="C173" t="s" s="997">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s" s="998">
-        <v>126</v>
-      </c>
-      <c r="E173" t="s" s="999">
-        <v>19</v>
-      </c>
-      <c r="F173" t="s" s="1000">
-        <v>43</v>
-      </c>
-      <c r="G173" t="s" s="1001">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="1002">
-        <v>7</v>
-      </c>
-      <c r="B174" t="s" s="1003">
-        <v>125</v>
-      </c>
-      <c r="C174" t="s" s="1004">
-        <v>22</v>
-      </c>
-      <c r="D174" t="s" s="1005">
-        <v>127</v>
-      </c>
-      <c r="E174" t="s" s="1006">
-        <v>11</v>
-      </c>
-      <c r="F174" t="s" s="1007">
-        <v>25</v>
-      </c>
-      <c r="G174" t="s" s="1008">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="1009">
-        <v>7</v>
-      </c>
-      <c r="B175" t="s" s="1010">
-        <v>125</v>
-      </c>
-      <c r="C175" t="s" s="1011">
-        <v>22</v>
-      </c>
-      <c r="D175" t="s" s="1012">
-        <v>127</v>
-      </c>
-      <c r="E175" t="s" s="1013">
-        <v>11</v>
-      </c>
-      <c r="F175" t="s" s="1014">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s" s="1015">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="1016">
-        <v>7</v>
-      </c>
-      <c r="B176" t="s" s="1017">
-        <v>125</v>
-      </c>
-      <c r="C176" t="s" s="1018">
-        <v>22</v>
-      </c>
-      <c r="D176" t="s" s="1019">
-        <v>127</v>
-      </c>
-      <c r="E176" t="s" s="1020">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s" s="1021">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s" s="1022">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="1023">
-        <v>18</v>
-      </c>
-      <c r="B177" t="s" s="1024">
-        <v>125</v>
-      </c>
-      <c r="C177" t="s" s="1025">
-        <v>22</v>
-      </c>
-      <c r="D177" t="s" s="1026">
-        <v>127</v>
-      </c>
-      <c r="E177" t="s" s="1027">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s" s="1028">
-        <v>42</v>
-      </c>
-      <c r="G177" t="s" s="1029">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="1030">
-        <v>18</v>
-      </c>
-      <c r="B178" t="s" s="1031">
-        <v>125</v>
-      </c>
-      <c r="C178" t="s" s="1032">
-        <v>22</v>
-      </c>
-      <c r="D178" t="s" s="1033">
-        <v>127</v>
-      </c>
-      <c r="E178" t="s" s="1034">
-        <v>19</v>
-      </c>
-      <c r="F178" t="s" s="1035">
-        <v>40</v>
-      </c>
-      <c r="G178" t="s" s="1036">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="1037">
-        <v>18</v>
-      </c>
-      <c r="B179" t="s" s="1038">
-        <v>125</v>
-      </c>
-      <c r="C179" t="s" s="1039">
-        <v>22</v>
-      </c>
-      <c r="D179" t="s" s="1040">
-        <v>127</v>
-      </c>
-      <c r="E179" t="s" s="1041">
-        <v>19</v>
-      </c>
-      <c r="F179" t="s" s="1042">
-        <v>39</v>
-      </c>
-      <c r="G179" t="s" s="1043">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="1044">
-        <v>7</v>
-      </c>
-      <c r="B180" t="s" s="1045">
-        <v>128</v>
-      </c>
-      <c r="C180" t="s" s="1046">
-        <v>9</v>
-      </c>
-      <c r="D180" t="s" s="1047">
-        <v>129</v>
-      </c>
-      <c r="E180" t="s" s="1048">
-        <v>11</v>
-      </c>
-      <c r="F180" t="s" s="1049">
-        <v>25</v>
-      </c>
-      <c r="G180" t="s" s="1050">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="1051">
-        <v>7</v>
-      </c>
-      <c r="B181" t="s" s="1052">
-        <v>128</v>
-      </c>
-      <c r="C181" t="s" s="1053">
-        <v>9</v>
-      </c>
-      <c r="D181" t="s" s="1054">
-        <v>129</v>
-      </c>
-      <c r="E181" t="s" s="1055">
-        <v>11</v>
-      </c>
-      <c r="F181" t="s" s="1056">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s" s="1057">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="1058">
-        <v>7</v>
-      </c>
-      <c r="B182" t="s" s="1059">
-        <v>128</v>
-      </c>
-      <c r="C182" t="s" s="1060">
-        <v>9</v>
-      </c>
-      <c r="D182" t="s" s="1061">
-        <v>129</v>
-      </c>
-      <c r="E182" t="s" s="1062">
-        <v>11</v>
-      </c>
-      <c r="F182" t="s" s="1063">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s" s="1064">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="1065">
-        <v>18</v>
-      </c>
-      <c r="B183" t="s" s="1066">
-        <v>128</v>
-      </c>
-      <c r="C183" t="s" s="1067">
-        <v>9</v>
-      </c>
-      <c r="D183" t="s" s="1068">
-        <v>129</v>
-      </c>
-      <c r="E183" t="s" s="1069">
-        <v>19</v>
-      </c>
-      <c r="F183" t="s" s="1070">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s" s="1071">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="1072">
-        <v>18</v>
-      </c>
-      <c r="B184" t="s" s="1073">
-        <v>128</v>
-      </c>
-      <c r="C184" t="s" s="1074">
-        <v>9</v>
-      </c>
-      <c r="D184" t="s" s="1075">
-        <v>129</v>
-      </c>
-      <c r="E184" t="s" s="1076">
-        <v>19</v>
-      </c>
-      <c r="F184" t="s" s="1077">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s" s="1078">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="1079">
-        <v>7</v>
-      </c>
-      <c r="B185" t="s" s="1080">
-        <v>128</v>
-      </c>
-      <c r="C185" t="s" s="1081">
-        <v>22</v>
-      </c>
-      <c r="D185" t="s" s="1082">
-        <v>130</v>
-      </c>
-      <c r="E185" t="s" s="1083">
-        <v>11</v>
-      </c>
-      <c r="F185" t="s" s="1084">
-        <v>28</v>
-      </c>
-      <c r="G185" t="s" s="1085">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="1086">
-        <v>7</v>
-      </c>
-      <c r="B186" t="s" s="1087">
-        <v>128</v>
-      </c>
-      <c r="C186" t="s" s="1088">
-        <v>22</v>
-      </c>
-      <c r="D186" t="s" s="1089">
-        <v>130</v>
-      </c>
-      <c r="E186" t="s" s="1090">
-        <v>11</v>
-      </c>
-      <c r="F186" t="s" s="1091">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s" s="1092">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="1093">
-        <v>7</v>
-      </c>
-      <c r="B187" t="s" s="1094">
-        <v>128</v>
-      </c>
-      <c r="C187" t="s" s="1095">
-        <v>22</v>
-      </c>
-      <c r="D187" t="s" s="1096">
-        <v>130</v>
-      </c>
-      <c r="E187" t="s" s="1097">
-        <v>11</v>
-      </c>
-      <c r="F187" t="s" s="1098">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s" s="1099">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="1100">
-        <v>18</v>
-      </c>
-      <c r="B188" t="s" s="1101">
-        <v>128</v>
-      </c>
-      <c r="C188" t="s" s="1102">
-        <v>22</v>
-      </c>
-      <c r="D188" t="s" s="1103">
-        <v>130</v>
-      </c>
-      <c r="E188" t="s" s="1104">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s" s="1105">
-        <v>32</v>
-      </c>
-      <c r="G188" t="s" s="1106">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="1107">
-        <v>18</v>
-      </c>
-      <c r="B189" t="s" s="1108">
-        <v>128</v>
-      </c>
-      <c r="C189" t="s" s="1109">
-        <v>22</v>
-      </c>
-      <c r="D189" t="s" s="1110">
-        <v>130</v>
-      </c>
-      <c r="E189" t="s" s="1111">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s" s="1112">
-        <v>47</v>
-      </c>
-      <c r="G189" t="s" s="1113">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="1114">
-        <v>18</v>
-      </c>
-      <c r="B190" t="s" s="1115">
-        <v>128</v>
-      </c>
-      <c r="C190" t="s" s="1116">
-        <v>22</v>
-      </c>
-      <c r="D190" t="s" s="1117">
-        <v>130</v>
-      </c>
-      <c r="E190" t="s" s="1118">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s" s="1119">
-        <v>30</v>
-      </c>
-      <c r="G190" t="s" s="1120">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="1121">
-        <v>18</v>
-      </c>
-      <c r="B191" t="s" s="1122">
-        <v>125</v>
-      </c>
-      <c r="C191" t="s" s="1123">
-        <v>33</v>
-      </c>
-      <c r="D191" t="s" s="1124">
-        <v>131</v>
-      </c>
-      <c r="E191" t="s" s="1125">
-        <v>19</v>
-      </c>
-      <c r="F191" t="s" s="1126">
-        <v>38</v>
-      </c>
-      <c r="G191" t="s" s="1127">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="1128">
-        <v>7</v>
-      </c>
-      <c r="B192" t="s" s="1129">
-        <v>132</v>
-      </c>
-      <c r="C192" t="s" s="1130">
-        <v>9</v>
-      </c>
-      <c r="D192" t="s" s="1131">
-        <v>133</v>
-      </c>
-      <c r="E192" t="s" s="1132">
-        <v>11</v>
-      </c>
-      <c r="F192" t="s" s="1133">
-        <v>29</v>
-      </c>
-      <c r="G192" t="s" s="1134">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="1135">
-        <v>7</v>
-      </c>
-      <c r="B193" t="s" s="1136">
-        <v>132</v>
-      </c>
-      <c r="C193" t="s" s="1137">
-        <v>9</v>
-      </c>
-      <c r="D193" t="s" s="1138">
-        <v>133</v>
-      </c>
-      <c r="E193" t="s" s="1139">
-        <v>11</v>
-      </c>
-      <c r="F193" t="s" s="1140">
-        <v>26</v>
-      </c>
-      <c r="G193" t="s" s="1141">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="1142">
-        <v>7</v>
-      </c>
-      <c r="B194" t="s" s="1143">
-        <v>132</v>
-      </c>
-      <c r="C194" t="s" s="1144">
-        <v>9</v>
-      </c>
-      <c r="D194" t="s" s="1145">
-        <v>133</v>
-      </c>
-      <c r="E194" t="s" s="1146">
-        <v>11</v>
-      </c>
-      <c r="F194" t="s" s="1147">
-        <v>27</v>
-      </c>
-      <c r="G194" t="s" s="1148">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="1149">
-        <v>18</v>
-      </c>
-      <c r="B195" t="s" s="1150">
-        <v>132</v>
-      </c>
-      <c r="C195" t="s" s="1151">
-        <v>9</v>
-      </c>
-      <c r="D195" t="s" s="1152">
-        <v>133</v>
-      </c>
-      <c r="E195" t="s" s="1153">
-        <v>19</v>
-      </c>
-      <c r="F195" t="s" s="1154">
-        <v>43</v>
-      </c>
-      <c r="G195" t="s" s="1155">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="1156">
-        <v>18</v>
-      </c>
-      <c r="B196" t="s" s="1157">
-        <v>132</v>
-      </c>
-      <c r="C196" t="s" s="1158">
-        <v>9</v>
-      </c>
-      <c r="D196" t="s" s="1159">
-        <v>133</v>
-      </c>
-      <c r="E196" t="s" s="1160">
-        <v>19</v>
-      </c>
-      <c r="F196" t="s" s="1161">
-        <v>42</v>
-      </c>
-      <c r="G196" t="s" s="1162">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="1163">
-        <v>18</v>
-      </c>
-      <c r="B197" t="s" s="1164">
-        <v>132</v>
-      </c>
-      <c r="C197" t="s" s="1165">
-        <v>9</v>
-      </c>
-      <c r="D197" t="s" s="1166">
-        <v>133</v>
-      </c>
-      <c r="E197" t="s" s="1167">
-        <v>19</v>
-      </c>
-      <c r="F197" t="s" s="1168">
-        <v>40</v>
-      </c>
-      <c r="G197" t="s" s="1169">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="1170">
-        <v>7</v>
-      </c>
-      <c r="B198" t="s" s="1171">
-        <v>132</v>
-      </c>
-      <c r="C198" t="s" s="1172">
-        <v>22</v>
-      </c>
-      <c r="D198" t="s" s="1173">
-        <v>134</v>
-      </c>
-      <c r="E198" t="s" s="1174">
-        <v>11</v>
-      </c>
-      <c r="F198" t="s" s="1175">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s" s="1176">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="1177">
-        <v>7</v>
-      </c>
-      <c r="B199" t="s" s="1178">
-        <v>132</v>
-      </c>
-      <c r="C199" t="s" s="1179">
-        <v>22</v>
-      </c>
-      <c r="D199" t="s" s="1180">
-        <v>134</v>
-      </c>
-      <c r="E199" t="s" s="1181">
-        <v>11</v>
-      </c>
-      <c r="F199" t="s" s="1182">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s" s="1183">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="1184">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s" s="1185">
-        <v>132</v>
-      </c>
-      <c r="C200" t="s" s="1186">
-        <v>22</v>
-      </c>
-      <c r="D200" t="s" s="1187">
-        <v>134</v>
-      </c>
-      <c r="E200" t="s" s="1188">
-        <v>11</v>
-      </c>
-      <c r="F200" t="s" s="1189">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s" s="1190">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="1191">
-        <v>18</v>
-      </c>
-      <c r="B201" t="s" s="1192">
-        <v>132</v>
-      </c>
-      <c r="C201" t="s" s="1193">
-        <v>22</v>
-      </c>
-      <c r="D201" t="s" s="1194">
-        <v>134</v>
-      </c>
-      <c r="E201" t="s" s="1195">
-        <v>19</v>
-      </c>
-      <c r="F201" t="s" s="1196">
-        <v>38</v>
-      </c>
-      <c r="G201" t="s" s="1197">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="1198">
-        <v>18</v>
-      </c>
-      <c r="B202" t="s" s="1199">
-        <v>132</v>
-      </c>
-      <c r="C202" t="s" s="1200">
-        <v>22</v>
-      </c>
-      <c r="D202" t="s" s="1201">
-        <v>134</v>
-      </c>
-      <c r="E202" t="s" s="1202">
-        <v>19</v>
-      </c>
-      <c r="F202" t="s" s="1203">
-        <v>31</v>
-      </c>
-      <c r="G202" t="s" s="1204">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="1205">
-        <v>18</v>
-      </c>
-      <c r="B203" t="s" s="1206">
-        <v>132</v>
-      </c>
-      <c r="C203" t="s" s="1207">
-        <v>22</v>
-      </c>
-      <c r="D203" t="s" s="1208">
-        <v>134</v>
-      </c>
-      <c r="E203" t="s" s="1209">
-        <v>19</v>
-      </c>
-      <c r="F203" t="s" s="1210">
-        <v>39</v>
-      </c>
-      <c r="G203" t="s" s="1211">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="1212">
-        <v>18</v>
-      </c>
-      <c r="B204" t="s" s="1213">
-        <v>128</v>
-      </c>
-      <c r="C204" t="s" s="1214">
-        <v>33</v>
-      </c>
-      <c r="D204" t="s" s="1215">
-        <v>135</v>
-      </c>
-      <c r="E204" t="s" s="1216">
-        <v>19</v>
-      </c>
-      <c r="F204" t="s" s="1217">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s" s="1218">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="1219">
-        <v>7</v>
-      </c>
-      <c r="B205" t="s" s="1220">
-        <v>136</v>
-      </c>
-      <c r="C205" t="s" s="1221">
-        <v>9</v>
-      </c>
-      <c r="D205" t="s" s="1222">
-        <v>137</v>
-      </c>
-      <c r="E205" t="s" s="1223">
-        <v>11</v>
-      </c>
-      <c r="F205" t="s" s="1224">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s" s="1225">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="1226">
-        <v>7</v>
-      </c>
-      <c r="B206" t="s" s="1227">
-        <v>136</v>
-      </c>
-      <c r="C206" t="s" s="1228">
-        <v>9</v>
-      </c>
-      <c r="D206" t="s" s="1229">
-        <v>137</v>
-      </c>
-      <c r="E206" t="s" s="1230">
-        <v>11</v>
-      </c>
-      <c r="F206" t="s" s="1231">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s" s="1232">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="1233">
-        <v>7</v>
-      </c>
-      <c r="B207" t="s" s="1234">
-        <v>136</v>
-      </c>
-      <c r="C207" t="s" s="1235">
-        <v>9</v>
-      </c>
-      <c r="D207" t="s" s="1236">
-        <v>137</v>
-      </c>
-      <c r="E207" t="s" s="1237">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s" s="1238">
-        <v>25</v>
-      </c>
-      <c r="G207" t="s" s="1239">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="1240">
-        <v>18</v>
-      </c>
-      <c r="B208" t="s" s="1241">
-        <v>136</v>
-      </c>
-      <c r="C208" t="s" s="1242">
-        <v>9</v>
-      </c>
-      <c r="D208" t="s" s="1243">
-        <v>137</v>
-      </c>
-      <c r="E208" t="s" s="1244">
-        <v>19</v>
-      </c>
-      <c r="F208" t="s" s="1245">
-        <v>30</v>
-      </c>
-      <c r="G208" t="s" s="1246">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="1247">
-        <v>18</v>
-      </c>
-      <c r="B209" t="s" s="1248">
-        <v>136</v>
-      </c>
-      <c r="C209" t="s" s="1249">
-        <v>9</v>
-      </c>
-      <c r="D209" t="s" s="1250">
-        <v>137</v>
-      </c>
-      <c r="E209" t="s" s="1251">
-        <v>19</v>
-      </c>
-      <c r="F209" t="s" s="1252">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s" s="1253">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="1254">
-        <v>18</v>
-      </c>
-      <c r="B210" t="s" s="1255">
-        <v>136</v>
-      </c>
-      <c r="C210" t="s" s="1256">
-        <v>9</v>
-      </c>
-      <c r="D210" t="s" s="1257">
-        <v>137</v>
-      </c>
-      <c r="E210" t="s" s="1258">
-        <v>19</v>
-      </c>
-      <c r="F210" t="s" s="1259">
-        <v>47</v>
-      </c>
-      <c r="G210" t="s" s="1260">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="1261">
-        <v>7</v>
-      </c>
-      <c r="B211" t="s" s="1262">
-        <v>136</v>
-      </c>
-      <c r="C211" t="s" s="1263">
-        <v>22</v>
-      </c>
-      <c r="D211" t="s" s="1264">
-        <v>138</v>
-      </c>
-      <c r="E211" t="s" s="1265">
-        <v>11</v>
-      </c>
-      <c r="F211" t="s" s="1266">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s" s="1267">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="1268">
-        <v>7</v>
-      </c>
-      <c r="B212" t="s" s="1269">
-        <v>136</v>
-      </c>
-      <c r="C212" t="s" s="1270">
-        <v>22</v>
-      </c>
-      <c r="D212" t="s" s="1271">
-        <v>138</v>
-      </c>
-      <c r="E212" t="s" s="1272">
-        <v>11</v>
-      </c>
-      <c r="F212" t="s" s="1273">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s" s="1274">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="1275">
-        <v>7</v>
-      </c>
-      <c r="B213" t="s" s="1276">
-        <v>136</v>
-      </c>
-      <c r="C213" t="s" s="1277">
-        <v>22</v>
-      </c>
-      <c r="D213" t="s" s="1278">
-        <v>138</v>
-      </c>
-      <c r="E213" t="s" s="1279">
-        <v>11</v>
-      </c>
-      <c r="F213" t="s" s="1280">
-        <v>12</v>
-      </c>
-      <c r="G213" t="s" s="1281">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="1282">
-        <v>18</v>
-      </c>
-      <c r="B214" t="s" s="1283">
-        <v>136</v>
-      </c>
-      <c r="C214" t="s" s="1284">
-        <v>22</v>
-      </c>
-      <c r="D214" t="s" s="1285">
-        <v>138</v>
-      </c>
-      <c r="E214" t="s" s="1286">
-        <v>19</v>
-      </c>
-      <c r="F214" t="s" s="1287">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s" s="1288">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="1289">
-        <v>18</v>
-      </c>
-      <c r="B215" t="s" s="1290">
-        <v>136</v>
-      </c>
-      <c r="C215" t="s" s="1291">
-        <v>22</v>
-      </c>
-      <c r="D215" t="s" s="1292">
-        <v>138</v>
-      </c>
-      <c r="E215" t="s" s="1293">
-        <v>19</v>
-      </c>
-      <c r="F215" t="s" s="1294">
-        <v>43</v>
-      </c>
-      <c r="G215" t="s" s="1295">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="1296">
-        <v>18</v>
-      </c>
-      <c r="B216" t="s" s="1297">
-        <v>136</v>
-      </c>
-      <c r="C216" t="s" s="1298">
-        <v>22</v>
-      </c>
-      <c r="D216" t="s" s="1299">
-        <v>138</v>
-      </c>
-      <c r="E216" t="s" s="1300">
-        <v>19</v>
-      </c>
-      <c r="F216" t="s" s="1301">
-        <v>35</v>
-      </c>
-      <c r="G216" t="s" s="1302">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="1303">
+      <c r="A166" t="s" s="946">
         <v>57</v>
       </c>
-      <c r="B217" t="s" s="1304">
-        <v>19</v>
-      </c>
-      <c r="C217" t="s" s="1305">
-        <v>66</v>
-      </c>
-      <c r="D217" t="s" s="1306">
-        <v>139</v>
-      </c>
-      <c r="E217" t="s" s="1307">
-        <v>19</v>
-      </c>
-      <c r="F217" t="s" s="1308">
-        <v>19</v>
-      </c>
-      <c r="G217" t="s" s="1309">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="1310">
-        <v>57</v>
-      </c>
-      <c r="B218" t="s" s="1311">
-        <v>19</v>
-      </c>
-      <c r="C218" t="s" s="1312">
-        <v>33</v>
-      </c>
-      <c r="D218" t="s" s="1313">
+      <c r="B166" t="s" s="947">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s" s="948">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s" s="949">
         <v>140</v>
       </c>
-      <c r="E218" t="s" s="1314">
-        <v>19</v>
-      </c>
-      <c r="F218" t="s" s="1315">
-        <v>19</v>
-      </c>
-      <c r="G218" t="s" s="1316">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="1317">
-        <v>57</v>
-      </c>
-      <c r="B219" t="s" s="1318">
-        <v>19</v>
-      </c>
-      <c r="C219" t="s" s="1319">
-        <v>58</v>
-      </c>
-      <c r="D219" t="s" s="1320">
-        <v>141</v>
-      </c>
-      <c r="E219" t="s" s="1321">
-        <v>19</v>
-      </c>
-      <c r="F219" t="s" s="1322">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s" s="1323">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="1324">
-        <v>57</v>
-      </c>
-      <c r="B220" t="s" s="1325">
-        <v>19</v>
-      </c>
-      <c r="C220" t="s" s="1326">
-        <v>60</v>
-      </c>
-      <c r="D220" t="s" s="1327">
-        <v>142</v>
-      </c>
-      <c r="E220" t="s" s="1328">
-        <v>19</v>
-      </c>
-      <c r="F220" t="s" s="1329">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s" s="1330">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="1331">
-        <v>57</v>
-      </c>
-      <c r="B221" t="s" s="1332">
-        <v>19</v>
-      </c>
-      <c r="C221" t="s" s="1333">
-        <v>9</v>
-      </c>
-      <c r="D221" t="s" s="1334">
-        <v>143</v>
-      </c>
-      <c r="E221" t="s" s="1335">
-        <v>19</v>
-      </c>
-      <c r="F221" t="s" s="1336">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s" s="1337">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="1338">
-        <v>57</v>
-      </c>
-      <c r="B222" t="s" s="1339">
-        <v>19</v>
-      </c>
-      <c r="C222" t="s" s="1340">
-        <v>22</v>
-      </c>
-      <c r="D222" t="s" s="1341">
-        <v>144</v>
-      </c>
-      <c r="E222" t="s" s="1342">
-        <v>19</v>
-      </c>
-      <c r="F222" t="s" s="1343">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s" s="1344">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="1345">
-        <v>57</v>
-      </c>
-      <c r="B223" t="s" s="1346">
-        <v>19</v>
-      </c>
-      <c r="C223" t="s" s="1347">
-        <v>64</v>
-      </c>
-      <c r="D223" t="s" s="1348">
-        <v>145</v>
-      </c>
-      <c r="E223" t="s" s="1349">
-        <v>19</v>
-      </c>
-      <c r="F223" t="s" s="1350">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s" s="1351">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="1352">
-        <v>57</v>
-      </c>
-      <c r="B224" t="s" s="1353">
-        <v>19</v>
-      </c>
-      <c r="C224" t="s" s="1354">
-        <v>66</v>
-      </c>
-      <c r="D224" t="s" s="1355">
-        <v>146</v>
-      </c>
-      <c r="E224" t="s" s="1356">
-        <v>19</v>
-      </c>
-      <c r="F224" t="s" s="1357">
-        <v>19</v>
-      </c>
-      <c r="G224" t="s" s="1358">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="1359">
-        <v>57</v>
-      </c>
-      <c r="B225" t="s" s="1360">
-        <v>19</v>
-      </c>
-      <c r="C225" t="s" s="1361">
-        <v>33</v>
-      </c>
-      <c r="D225" t="s" s="1362">
-        <v>147</v>
-      </c>
-      <c r="E225" t="s" s="1363">
-        <v>19</v>
-      </c>
-      <c r="F225" t="s" s="1364">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s" s="1365">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s" s="1366">
-        <v>57</v>
-      </c>
-      <c r="B226" t="s" s="1367">
-        <v>19</v>
-      </c>
-      <c r="C226" t="s" s="1368">
-        <v>58</v>
-      </c>
-      <c r="D226" t="s" s="1369">
-        <v>148</v>
-      </c>
-      <c r="E226" t="s" s="1370">
-        <v>19</v>
-      </c>
-      <c r="F226" t="s" s="1371">
-        <v>19</v>
-      </c>
-      <c r="G226" t="s" s="1372">
+      <c r="E166" t="s" s="950">
+        <v>19</v>
+      </c>
+      <c r="F166" t="s" s="951">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s" s="952">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G225"/>
+  <autoFilter ref="A1:G165"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>